--- a/新建文件夹 (2)/akchemy.xlsx
+++ b/新建文件夹 (2)/akchemy.xlsx
@@ -924,8 +924,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="K429" sqref="K429"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
